--- a/Essential_EA/BIAN_Business_Capability_Source.xlsx
+++ b/Essential_EA/BIAN_Business_Capability_Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EA\Essential_EA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6106D8-9D4F-45B6-9CCA-8BB501F693C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E85A29-3893-41A3-97B4-5C1BD548F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97C4259B-BA6F-420C-94E7-E5C1CC454DBA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97C4259B-BA6F-420C-94E7-E5C1CC454DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,12 +540,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -671,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,11 +718,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -740,130 +894,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -878,14 +908,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66004F96-7D85-4385-BF0C-EC445CA7E3C2}" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66004F96-7D85-4385-BF0C-EC445CA7E3C2}" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E57" xr:uid="{66004F96-7D85-4385-BF0C-EC445CA7E3C2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B6A35336-C8EB-407C-A8E9-E409CBFA043E}" name="Level" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4013C282-2555-470A-A8A2-BEB576332F26}" name="Label" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{431DFDD9-0A3B-46D0-9F8A-94BF6185889C}" name="Capability" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EF6BC100-F66F-43C5-847D-E8F41CF33A5A}" name="Parent Capability" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{69ABFB69-CF3A-4B16-AFC2-636C7294DC3F}" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6A35336-C8EB-407C-A8E9-E409CBFA043E}" name="Level" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4013C282-2555-470A-A8A2-BEB576332F26}" name="Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{431DFDD9-0A3B-46D0-9F8A-94BF6185889C}" name="Capability" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EF6BC100-F66F-43C5-847D-E8F41CF33A5A}" name="Parent Capability" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{69ABFB69-CF3A-4B16-AFC2-636C7294DC3F}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,8 +1221,8 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1225,11 +1255,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
@@ -1238,13 +1268,13 @@
       <c r="B3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
@@ -1253,13 +1283,13 @@
       <c r="B4" s="3">
         <v>1.2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
@@ -1268,13 +1298,13 @@
       <c r="B5" s="3">
         <v>1.3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
@@ -1283,13 +1313,13 @@
       <c r="B6" s="3">
         <v>1.4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4">
@@ -1298,13 +1328,13 @@
       <c r="B7" s="3">
         <v>1.5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="4">
@@ -1313,13 +1343,13 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1330,47 +1360,47 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.5">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1381,13 +1411,13 @@
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1398,13 +1428,13 @@
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1415,13 +1445,13 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1432,13 +1462,13 @@
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1449,13 +1479,13 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1466,13 +1496,13 @@
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1483,13 +1513,13 @@
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1500,13 +1530,13 @@
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1517,13 +1547,13 @@
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1534,13 +1564,13 @@
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1551,13 +1581,13 @@
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1568,13 +1598,13 @@
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1585,13 +1615,13 @@
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1602,13 +1632,13 @@
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1619,13 +1649,13 @@
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1636,13 +1666,13 @@
       <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1653,13 +1683,13 @@
       <c r="B28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1670,13 +1700,13 @@
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1687,13 +1717,13 @@
       <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1704,13 +1734,13 @@
       <c r="B31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="17" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Essential_EA/BIAN_Business_Capability_Source.xlsx
+++ b/Essential_EA/BIAN_Business_Capability_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EA\Essential_EA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5575E-2955-411B-976B-BA96C057E25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5661E637-86C8-415E-97E6-7B258F66FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97C4259B-BA6F-420C-94E7-E5C1CC454DBA}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="229">
   <si>
     <t>Parent Capability</t>
   </si>
@@ -597,6 +597,156 @@
   </si>
   <si>
     <t>1.1.1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to ascertain, prioritize and fund an action and/or approach that progresses the bank implements toward its business direction.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to determine, establish and validate an integrated continuing plan of action (how resources should be allocated) that is intended to advance the business direction. </t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>Business Direction Performance Management</t>
+  </si>
+  <si>
+    <t>1.1.1.4.1</t>
+  </si>
+  <si>
+    <t>Object Achievement Determination</t>
+  </si>
+  <si>
+    <t>1.1.1.4.2</t>
+  </si>
+  <si>
+    <t>Goal Achievement Determination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to assess and determine the state of the organization with respect to its business direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to determine the extent to which objectives are achieved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to determine the extent to which goals are achieved. </t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>Business Direction Association Management</t>
+  </si>
+  <si>
+    <t>1.1.1.5.1</t>
+  </si>
+  <si>
+    <t>Business Direction to Information Association</t>
+  </si>
+  <si>
+    <t>1.1.1.5.2</t>
+  </si>
+  <si>
+    <t>Business Direction to Risk Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to manage the relationship of business direction with other business objects and/or utilize other capabilities in the management of business direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to manage business direcrtion information by utilizing information management capabilities and incorporating other related information. </t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>Fraud Incident Prevention Management</t>
+  </si>
+  <si>
+    <t>1.1.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2.1.3</t>
+  </si>
+  <si>
+    <t>1.1.2.1.4</t>
+  </si>
+  <si>
+    <t>Fraud Awareness Management</t>
+  </si>
+  <si>
+    <t>Fraud Prevention Management</t>
+  </si>
+  <si>
+    <t>Fraud Prediction Management</t>
+  </si>
+  <si>
+    <t>Fraud PreventionTechniques Management</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>Fraud Incident Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to recognize a fraud incident. </t>
+  </si>
+  <si>
+    <t>1.1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.2.3</t>
+  </si>
+  <si>
+    <t>Fraudulent Tracsaction Incident Detection</t>
+  </si>
+  <si>
+    <t>Fraudulent Application Incident Detection</t>
+  </si>
+  <si>
+    <t>Fraudulent Access Incident Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to recognize a fraudulent transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to recofnize a fraudulent application (request). </t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>Fraud Claim Handling</t>
+  </si>
+  <si>
+    <t>1.1.2.3.1</t>
+  </si>
+  <si>
+    <t>Fraud Estimation</t>
+  </si>
+  <si>
+    <t>1.1.2.3.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3.3</t>
+  </si>
+  <si>
+    <t>1.1.2.3.4</t>
+  </si>
+  <si>
+    <t>Liability Determination</t>
+  </si>
+  <si>
+    <t>Fraud Claim Validation</t>
+  </si>
+  <si>
+    <t>Fraud Claim Resolution</t>
   </si>
 </sst>
 </file>
@@ -1306,14 +1456,14 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="133.85546875" style="2" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="9" width="34.42578125" style="1" hidden="1" customWidth="1"/>
@@ -2773,7 +2923,9 @@
       <c r="D62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="H62" s="1" t="str">
         <f>Table1[[#This Row],[Capability]]</f>
         <v>Business Direction Implementation</v>
@@ -2782,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="25.5">
       <c r="A63" s="4">
         <v>4</v>
       </c>
@@ -2795,7 +2947,9 @@
       <c r="D63" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="H63" s="1" t="str">
         <f>Table1[[#This Row],[Capability]]</f>
         <v>Strategy Development</v>
@@ -2849,280 +3003,468 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="5"/>
-      <c r="H66" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Business Direction Performance Management</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="5"/>
-      <c r="H67" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A67" s="4">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Object Achievement Determination</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="4"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="5"/>
-      <c r="H68" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A68" s="4">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Goal Achievement Determination</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="5"/>
-      <c r="H69" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A69" s="4">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Business Direction Association Management</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="4"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
-      <c r="H70" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A70" s="4">
+        <v>4</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Business Direction to Information Association</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="4">
+        <v>4</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E71" s="5"/>
-      <c r="H71" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H71" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Business Direction to Risk Association</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="4"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
-      <c r="H72" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A72" s="4">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Incident Prevention Management</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="4"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
-      <c r="H73" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A73" s="4">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Awareness Management</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="5"/>
-      <c r="H74" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A74" s="4">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Prediction Management</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="4"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="5"/>
-      <c r="H75" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A75" s="4">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Prevention Management</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="4"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="5"/>
-      <c r="H76" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A76" s="4">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud PreventionTechniques Management</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="4"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="5"/>
-      <c r="H77" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Incident Detection</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="4"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="5"/>
-      <c r="H78" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraudulent Tracsaction Incident Detection</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="4"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="5"/>
-      <c r="H79" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A79" s="4">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraudulent Access Incident Detection</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="5"/>
-      <c r="H80" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="A80" s="4">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraudulent Application Incident Detection</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="4"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="4">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E81" s="5"/>
-      <c r="H81" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H81" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Claim Handling</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="4"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E82" s="5"/>
-      <c r="H82" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H82" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Estimation</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="4"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="4">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E83" s="5"/>
-      <c r="H83" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H83" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Liability Determination</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="4"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="4">
+        <v>6</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="H84" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H84" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Claim Validation</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="4"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="4">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E85" s="5"/>
-      <c r="H85" s="1">
-        <f>Table1[[#This Row],[Capability]]</f>
-        <v>0</v>
+      <c r="H85" s="1" t="str">
+        <f>Table1[[#This Row],[Capability]]</f>
+        <v>Fraud Claim Resolution</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -14772,8 +15114,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I917" s="1">
-        <v>0</v>
+      <c r="I917" s="1" t="str">
+        <v>Agreement Management</v>
       </c>
     </row>
     <row r="918" spans="1:9">
@@ -14786,8 +15128,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I918" s="1">
-        <v>0</v>
+      <c r="I918" s="1" t="str">
+        <v>BIAN Business Capability</v>
       </c>
     </row>
     <row r="919" spans="1:9">
@@ -14800,8 +15142,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I919" s="1">
-        <v>0</v>
+      <c r="I919" s="1" t="str">
+        <v>Brand Management</v>
       </c>
     </row>
     <row r="920" spans="1:9">
@@ -14814,8 +15156,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I920" s="1">
-        <v>0</v>
+      <c r="I920" s="1" t="str">
+        <v>Business Direction Association Management</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -14828,8 +15170,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I921" s="1">
-        <v>0</v>
+      <c r="I921" s="1" t="str">
+        <v>Business Direction Communication</v>
       </c>
     </row>
     <row r="922" spans="1:9">
@@ -14842,8 +15184,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I922" s="1">
-        <v>0</v>
+      <c r="I922" s="1" t="str">
+        <v>Business Direction Formulation</v>
       </c>
     </row>
     <row r="923" spans="1:9">
@@ -14856,8 +15198,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I923" s="1">
-        <v>0</v>
+      <c r="I923" s="1" t="str">
+        <v>Business Direction Implementation</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -14870,8 +15212,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I924" s="1">
-        <v>0</v>
+      <c r="I924" s="1" t="str">
+        <v>Business Direction Management</v>
       </c>
     </row>
     <row r="925" spans="1:9">
@@ -14884,8 +15226,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I925" s="1">
-        <v>0</v>
+      <c r="I925" s="1" t="str">
+        <v>Business Direction Performance Management</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -14898,8 +15240,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I926" s="1">
-        <v>0</v>
+      <c r="I926" s="1" t="str">
+        <v>Business Direction to Information Association</v>
       </c>
     </row>
     <row r="927" spans="1:9">
@@ -14912,8 +15254,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I927" s="1">
-        <v>0</v>
+      <c r="I927" s="1" t="str">
+        <v>Business Direction to Risk Association</v>
       </c>
     </row>
     <row r="928" spans="1:9">
@@ -14926,8 +15268,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I928" s="1">
-        <v>0</v>
+      <c r="I928" s="1" t="str">
+        <v>Business Entity Management</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -14940,8 +15282,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I929" s="1">
-        <v>0</v>
+      <c r="I929" s="1" t="str">
+        <v>Campaign Management</v>
       </c>
     </row>
     <row r="930" spans="1:9">
@@ -14954,8 +15296,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I930" s="1">
-        <v>0</v>
+      <c r="I930" s="1" t="str">
+        <v>Channel Management</v>
       </c>
     </row>
     <row r="931" spans="1:9">
@@ -14968,8 +15310,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I931" s="1">
-        <v>0</v>
+      <c r="I931" s="1" t="str">
+        <v>Collateral Management</v>
       </c>
     </row>
     <row r="932" spans="1:9">
@@ -14982,8 +15324,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I932" s="1">
-        <v>0</v>
+      <c r="I932" s="1" t="str">
+        <v>Competency Management</v>
       </c>
     </row>
     <row r="933" spans="1:9">
@@ -14996,8 +15338,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I933" s="1">
-        <v>0</v>
+      <c r="I933" s="1" t="str">
+        <v>Content Management</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -15010,8 +15352,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I934" s="1">
-        <v>0</v>
+      <c r="I934" s="1" t="str">
+        <v>Customer and Distribution</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -15024,8 +15366,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I935" s="1">
-        <v>0</v>
+      <c r="I935" s="1" t="str">
+        <v>Customer Management</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -15038,8 +15380,8 @@
         <f>Table1[[#This Row],[Capability]]</f>
         <v>0</v>
       </c>
-      <c r="I936" s="1">
-        <v>0</v>
+      <c r="I936" s="1" t="str">
+        <v>Enterprise Enabling</v>
       </c>
     </row>
     <row r="937" spans="1:9">
@@ -15053,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="I937" s="1" t="str">
-        <v>Agreement Management</v>
+        <v>Enterprise Management and Controlling</v>
       </c>
     </row>
     <row r="938" spans="1:9">
@@ -15067,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="I938" s="1" t="str">
-        <v>BIAN Business Capability</v>
+        <v>Event Management</v>
       </c>
     </row>
     <row r="939" spans="1:9">
@@ -15081,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I939" s="1" t="str">
-        <v>Brand Management</v>
+        <v>Facility and Equipment Management</v>
       </c>
     </row>
     <row r="940" spans="1:9">
@@ -15095,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="I940" s="1" t="str">
-        <v>Business Direction Communication</v>
+        <v>Fianncial Instrument Management</v>
       </c>
     </row>
     <row r="941" spans="1:9">
@@ -15109,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="I941" s="1" t="str">
-        <v>Business Direction Formulation</v>
+        <v>Finance Account Management</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -15123,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="I942" s="1" t="str">
-        <v>Business Direction Implementation</v>
+        <v>Finance Management</v>
       </c>
     </row>
     <row r="943" spans="1:9">
@@ -15137,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="I943" s="1" t="str">
-        <v>Business Direction Management</v>
+        <v>Financial Plan Management</v>
       </c>
     </row>
     <row r="944" spans="1:9">
@@ -15151,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="I944" s="1" t="str">
-        <v>Business Entity Management</v>
+        <v>Financial Position Management</v>
       </c>
     </row>
     <row r="945" spans="1:9">
@@ -15165,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="I945" s="1" t="str">
-        <v>Campaign Management</v>
+        <v>Fraud Awareness Management</v>
       </c>
     </row>
     <row r="946" spans="1:9">
@@ -15179,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I946" s="1" t="str">
-        <v>Channel Management</v>
+        <v>Fraud Claim Handling</v>
       </c>
     </row>
     <row r="947" spans="1:9">
@@ -15193,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="I947" s="1" t="str">
-        <v>Collateral Management</v>
+        <v>Fraud Claim Resolution</v>
       </c>
     </row>
     <row r="948" spans="1:9">
@@ -15207,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="I948" s="1" t="str">
-        <v>Competency Management</v>
+        <v>Fraud Claim Validation</v>
       </c>
     </row>
     <row r="949" spans="1:9">
@@ -15221,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="I949" s="1" t="str">
-        <v>Content Management</v>
+        <v>Fraud Estimation</v>
       </c>
     </row>
     <row r="950" spans="1:9">
@@ -15235,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="I950" s="1" t="str">
-        <v>Customer and Distribution</v>
+        <v>Fraud Incident Detection</v>
       </c>
     </row>
     <row r="951" spans="1:9">
@@ -15249,7 +15591,7 @@
         <v>0</v>
       </c>
       <c r="I951" s="1" t="str">
-        <v>Customer Management</v>
+        <v>Fraud Incident Management</v>
       </c>
     </row>
     <row r="952" spans="1:9">
@@ -15263,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="I952" s="1" t="str">
-        <v>Enterprise Enabling</v>
+        <v>Fraud Incident Prevention Management</v>
       </c>
     </row>
     <row r="953" spans="1:9">
@@ -15277,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="I953" s="1" t="str">
-        <v>Enterprise Management and Controlling</v>
+        <v>Fraud Prediction Management</v>
       </c>
     </row>
     <row r="954" spans="1:9">
@@ -15291,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="I954" s="1" t="str">
-        <v>Event Management</v>
+        <v>Fraud Prevention Management</v>
       </c>
     </row>
     <row r="955" spans="1:9">
@@ -15305,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="I955" s="1" t="str">
-        <v>Facility and Equipment Management</v>
+        <v>Fraud PreventionTechniques Management</v>
       </c>
     </row>
     <row r="956" spans="1:9">
@@ -15319,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="I956" s="1" t="str">
-        <v>Fianncial Instrument Management</v>
+        <v>Fraudulent Access Incident Detection</v>
       </c>
     </row>
     <row r="957" spans="1:9">
@@ -15333,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="I957" s="1" t="str">
-        <v>Finance Account Management</v>
+        <v>Fraudulent Application Incident Detection</v>
       </c>
     </row>
     <row r="958" spans="1:9">
@@ -15347,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="I958" s="1" t="str">
-        <v>Finance Management</v>
+        <v>Fraudulent Tracsaction Incident Detection</v>
       </c>
     </row>
     <row r="959" spans="1:9">
@@ -15361,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="I959" s="1" t="str">
-        <v>Financial Plan Management</v>
+        <v>Goal Achievement Determination</v>
       </c>
     </row>
     <row r="960" spans="1:9">
@@ -15375,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="I960" s="1" t="str">
-        <v>Financial Position Management</v>
+        <v>Goal Setting</v>
       </c>
     </row>
     <row r="961" spans="1:9">
@@ -15389,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="I961" s="1" t="str">
-        <v>Fraud Incident Management</v>
+        <v>Human Capital Management</v>
       </c>
     </row>
     <row r="962" spans="1:9">
@@ -15403,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="I962" s="1" t="str">
-        <v>Goal Setting</v>
+        <v>Incident Management</v>
       </c>
     </row>
     <row r="963" spans="1:9">
@@ -15417,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="I963" s="1" t="str">
-        <v>Human Capital Management</v>
+        <v>Information Management</v>
       </c>
     </row>
     <row r="964" spans="1:9">
@@ -15431,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="I964" s="1" t="str">
-        <v>Incident Management</v>
+        <v>Initiative Management</v>
       </c>
     </row>
     <row r="965" spans="1:9">
@@ -15445,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="I965" s="1" t="str">
-        <v>Information Management</v>
+        <v>Inquiry Management</v>
       </c>
     </row>
     <row r="966" spans="1:9">
@@ -15459,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="I966" s="1" t="str">
-        <v>Initiative Management</v>
+        <v>Intellectual Porterty Management</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -15473,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="I967" s="1" t="str">
-        <v>Inquiry Management</v>
+        <v>Interaction Management</v>
       </c>
     </row>
     <row r="968" spans="1:9">
@@ -15487,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="I968" s="1" t="str">
-        <v>Intellectual Porterty Management</v>
+        <v>Investment Portfolio Management</v>
       </c>
     </row>
     <row r="969" spans="1:9">
@@ -15501,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="I969" s="1" t="str">
-        <v>Interaction Management</v>
+        <v>Investory Management</v>
       </c>
     </row>
     <row r="970" spans="1:9">
@@ -15515,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="I970" s="1" t="str">
-        <v>Investment Portfolio Management</v>
+        <v>Issued Device Management</v>
       </c>
     </row>
     <row r="971" spans="1:9">
@@ -15529,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="I971" s="1" t="str">
-        <v>Investory Management</v>
+        <v>Language Management</v>
       </c>
     </row>
     <row r="972" spans="1:9">
@@ -15543,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="I972" s="1" t="str">
-        <v>Issued Device Management</v>
+        <v>Lead Management</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -15557,7 +15899,7 @@
         <v>0</v>
       </c>
       <c r="I973" s="1" t="str">
-        <v>Language Management</v>
+        <v>Legal Support</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -15571,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="I974" s="1" t="str">
-        <v>Lead Management</v>
+        <v>Liability Determination</v>
       </c>
     </row>
     <row r="975" spans="1:9">
@@ -15585,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="I975" s="1" t="str">
-        <v>Legal Support</v>
+        <v>Location Management</v>
       </c>
     </row>
     <row r="976" spans="1:9">
@@ -15599,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="I976" s="1" t="str">
-        <v>Location Management</v>
+        <v>Loyalty Management</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -15613,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="I977" s="1" t="str">
-        <v>Loyalty Management</v>
+        <v>Market Management</v>
       </c>
     </row>
     <row r="978" spans="1:9">
@@ -15627,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="I978" s="1" t="str">
-        <v>Market Management</v>
+        <v>Marketing and Sales</v>
       </c>
     </row>
     <row r="979" spans="1:9">
@@ -15641,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="I979" s="1" t="str">
-        <v>Marketing and Sales</v>
+        <v>Message Management</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -15655,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="I980" s="1" t="str">
-        <v>Message Management</v>
+        <v>Mission Development</v>
       </c>
     </row>
     <row r="981" spans="1:9">
@@ -15669,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="I981" s="1" t="str">
-        <v>Mission Development</v>
+        <v>Money Movement Management</v>
       </c>
     </row>
     <row r="982" spans="1:9">
@@ -15683,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I982" s="1" t="str">
-        <v>Money Movement Management</v>
+        <v>Object Achievement Determination</v>
       </c>
     </row>
     <row r="983" spans="1:9">
